--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
     <sheet name="Hero" sheetId="1" r:id="rId2"/>
     <sheet name="CTA" sheetId="7" r:id="rId3"/>
-    <sheet name="RTE" sheetId="2" r:id="rId4"/>
-    <sheet name="Accordian" sheetId="3" r:id="rId5"/>
-    <sheet name="ContentCard" sheetId="4" r:id="rId6"/>
-    <sheet name="Header" sheetId="5" r:id="rId7"/>
-    <sheet name="image" sheetId="6" r:id="rId8"/>
+    <sheet name="Headline" sheetId="9" r:id="rId4"/>
+    <sheet name="RTE" sheetId="2" r:id="rId5"/>
+    <sheet name="Accordian" sheetId="3" r:id="rId6"/>
+    <sheet name="ContentCard" sheetId="4" r:id="rId7"/>
+    <sheet name="Header" sheetId="5" r:id="rId8"/>
+    <sheet name="image" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>bgColor</t>
   </si>
@@ -116,19 +117,46 @@
     <t>tests</t>
   </si>
   <si>
-    <t>Hero</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
     <t>Sample</t>
   </si>
+  <si>
+    <t>headlineText</t>
+  </si>
+  <si>
+    <t>headlineLink</t>
+  </si>
+  <si>
+    <t>headlineLinkOption</t>
+  </si>
+  <si>
+    <t>PlainText</t>
+  </si>
+  <si>
+    <t>Sample Test</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Headline</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/testing</t>
+  </si>
+  <si>
+    <t>New tab</t>
+  </si>
+  <si>
+    <t>Existing window/tab</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -503,18 +531,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -522,20 +550,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -552,23 +572,23 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -603,7 +623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -638,7 +658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -672,17 +692,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -696,9 +716,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -720,12 +740,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -736,7 +803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -748,7 +815,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -760,7 +827,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -772,7 +839,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -8,121 +8,34 @@
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="8" r:id="rId1"/>
-    <sheet name="Hero" sheetId="1" r:id="rId2"/>
-    <sheet name="CTA" sheetId="7" r:id="rId3"/>
-    <sheet name="Headline" sheetId="9" r:id="rId4"/>
-    <sheet name="RTE" sheetId="2" r:id="rId5"/>
-    <sheet name="Accordian" sheetId="3" r:id="rId6"/>
-    <sheet name="ContentCard" sheetId="4" r:id="rId7"/>
-    <sheet name="Header" sheetId="5" r:id="rId8"/>
-    <sheet name="image" sheetId="6" r:id="rId9"/>
+    <sheet name="Headline" sheetId="9" r:id="rId2"/>
+    <sheet name="Hero" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
-  <si>
-    <t>bgColor</t>
-  </si>
-  <si>
-    <t>headline</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>heroText</t>
   </si>
   <si>
-    <t>bgImage</t>
-  </si>
-  <si>
-    <t>CTA</t>
-  </si>
-  <si>
-    <t>heroImageStyle</t>
-  </si>
-  <si>
-    <t>textPosition</t>
-  </si>
-  <si>
-    <t>headlineColor</t>
-  </si>
-  <si>
-    <t>brandBands</t>
-  </si>
-  <si>
-    <t>heroBaseHeight</t>
-  </si>
-  <si>
-    <t>ctaText</t>
-  </si>
-  <si>
-    <t>ctaLink</t>
-  </si>
-  <si>
-    <t>openLink</t>
-  </si>
-  <si>
-    <t>Continue</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/</t>
-  </si>
-  <si>
-    <t>newtab</t>
-  </si>
-  <si>
-    <t>Tall</t>
-  </si>
-  <si>
-    <t>AgilentBlue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to the Agilent Combined Positive Score (CPS) education resources </t>
-  </si>
-  <si>
-    <t>The educational resources help pathologists to increase their confidence</t>
-  </si>
-  <si>
-    <t>On Image</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>image path</t>
-  </si>
-  <si>
-    <t>CTA(1,3)</t>
-  </si>
-  <si>
     <t>TestName</t>
   </si>
   <si>
-    <t>CustomValues</t>
-  </si>
-  <si>
-    <t>Defaultvalues</t>
-  </si>
-  <si>
     <t>ComponentName</t>
   </si>
   <si>
     <t>tests</t>
   </si>
   <si>
+    <t>Hero</t>
+  </si>
+  <si>
     <t>1-2</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
     <t>headlineText</t>
   </si>
   <si>
@@ -151,24 +64,77 @@
   </si>
   <si>
     <t>Existing window/tab</t>
+  </si>
+  <si>
+    <t>heroHeadlineText</t>
+  </si>
+  <si>
+    <t>backgroungImage</t>
+  </si>
+  <si>
+    <t>addButton</t>
+  </si>
+  <si>
+    <t>buttonLink</t>
+  </si>
+  <si>
+    <t>buttonText</t>
+  </si>
+  <si>
+    <t>buttonColor</t>
+  </si>
+  <si>
+    <t>withoutCTA</t>
+  </si>
+  <si>
+    <t>withCTA</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>1. Actual Site :
+ a. Regression tests
+ b. Functional Navigation tests
+ c. Do we need to verify the UI (alignment, size, position, pixels...) ?</t>
+  </si>
+  <si>
+    <t>/content/dam/pathology-education/asset.jpg</t>
+  </si>
+  <si>
+    <t>Demo2</t>
+  </si>
+  <si>
+    <t>2. Authoring Components : All Components
+ a. With diff possible data combinations, publish the component
+ b. After publishing the component, verification points ?
+  1. Content displayed correctly or not
+  2. Do we need to verify the UI (alignment, size, position, pixels...)</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>View Details</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/atlas</t>
+  </si>
+  <si>
+    <t>selectStyle</t>
+  </si>
+  <si>
+    <t>Show Brand Bar,Content Area Background Color Primary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -190,45 +156,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -531,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -544,18 +483,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -565,180 +512,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.7265625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -755,41 +528,41 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -797,62 +570,100 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.81640625" customWidth="1"/>
+    <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,23 +4,30 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases" sheetId="8" r:id="rId1"/>
-    <sheet name="Headline" sheetId="9" r:id="rId2"/>
-    <sheet name="Hero" sheetId="10" r:id="rId3"/>
+    <sheet name="TestCases_Final" sheetId="8" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="12" r:id="rId2"/>
+    <sheet name="Headline" sheetId="9" r:id="rId3"/>
+    <sheet name="Hero" sheetId="10" r:id="rId4"/>
+    <sheet name="CTA" sheetId="11" r:id="rId5"/>
+    <sheet name="TextBlock" sheetId="13" r:id="rId6"/>
+    <sheet name="Carousel" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>heroText</t>
   </si>
   <si>
+    <t>CTA</t>
+  </si>
+  <si>
     <t>TestName</t>
   </si>
   <si>
@@ -45,15 +52,9 @@
     <t>headlineLinkOption</t>
   </si>
   <si>
-    <t>PlainText</t>
-  </si>
-  <si>
     <t>Sample Test</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Headline</t>
   </si>
   <si>
@@ -63,9 +64,6 @@
     <t>New tab</t>
   </si>
   <si>
-    <t>Existing window/tab</t>
-  </si>
-  <si>
     <t>heroHeadlineText</t>
   </si>
   <si>
@@ -84,34 +82,15 @@
     <t>buttonColor</t>
   </si>
   <si>
-    <t>withoutCTA</t>
-  </si>
-  <si>
-    <t>withCTA</t>
-  </si>
-  <si>
     <t>Demo</t>
   </si>
   <si>
-    <t>1. Actual Site :
- a. Regression tests
- b. Functional Navigation tests
- c. Do we need to verify the UI (alignment, size, position, pixels...) ?</t>
-  </si>
-  <si>
     <t>/content/dam/pathology-education/asset.jpg</t>
   </si>
   <si>
     <t>Demo2</t>
   </si>
   <si>
-    <t>2. Authoring Components : All Components
- a. With diff possible data combinations, publish the component
- b. After publishing the component, verification points ?
-  1. Content displayed correctly or not
-  2. Do we need to verify the UI (alignment, size, position, pixels...)</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -121,10 +100,166 @@
     <t>/content/pathology-education/language-masters/en/atlas</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>selectStyle</t>
   </si>
   <si>
     <t>Show Brand Bar,Content Area Background Color Primary</t>
+  </si>
+  <si>
+    <t>buttonLabel</t>
+  </si>
+  <si>
+    <t>linkActions</t>
+  </si>
+  <si>
+    <t>iconPosition</t>
+  </si>
+  <si>
+    <t>buttontextColor</t>
+  </si>
+  <si>
+    <t>View Cource</t>
+  </si>
+  <si>
+    <t>Preceding the button text</t>
+  </si>
+  <si>
+    <t>Transparent</t>
+  </si>
+  <si>
+    <t>Following the button text</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>New window</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Headline_PlainText</t>
+  </si>
+  <si>
+    <t>Headline_LinkSameTab</t>
+  </si>
+  <si>
+    <t>Headline_LinkNewTab</t>
+  </si>
+  <si>
+    <t>Headline_LinkNewWindow</t>
+  </si>
+  <si>
+    <t>Hero_withoutCTA</t>
+  </si>
+  <si>
+    <t>Hero_withCTA</t>
+  </si>
+  <si>
+    <t>a. Regression tests
+b. Functional Navigation tests
+c. Do we need to verify the UI (alignment, size, position, pixels...) ?</t>
+  </si>
+  <si>
+    <t>a. With diff possible data combinations, publish the component
+b. After publishing the component, verification points ?
+c. Content displayed correctly or not
+d. Do we need to verify the UI (alignment, size, position, pixels...)</t>
+  </si>
+  <si>
+    <t>Button_DefaultValues</t>
+  </si>
+  <si>
+    <t>Button_TransparentNewTab</t>
+  </si>
+  <si>
+    <t>Button_TextNewWindow</t>
+  </si>
+  <si>
+    <t>rteText</t>
+  </si>
+  <si>
+    <t>RTE_DefaultStyle</t>
+  </si>
+  <si>
+    <t>RTE_WhiteColor</t>
+  </si>
+  <si>
+    <t>This is required if you want to make use of the latest and greatest features of the WebDriver InternetExplorerDriver.
+Please make sure that this is available on your $PATH (or %PATH% on Windows) in order for the IE Driver to work as expected.</t>
+  </si>
+  <si>
+    <t>Quick Test Professional, provided by HP.
+Rational Robot, provided by IBM.
+Coded UI, provided by Microsoft.
+Selenium, open source.
+Auto It, open Source.</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>TextBlock</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>RTE_GrayColor</t>
+  </si>
+  <si>
+    <t>Carousel</t>
+  </si>
+  <si>
+    <t>autoTransitionSlide</t>
+  </si>
+  <si>
+    <t>authorHerocomponents</t>
+  </si>
+  <si>
+    <t>Carousel_Defaultvalues</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>addHeroComponents</t>
+  </si>
+  <si>
+    <t>HeroComponent1
+HeroComponent2
+HeroComponent3</t>
+  </si>
+  <si>
+    <t>Carousel_Hero1</t>
+  </si>
+  <si>
+    <t>Carousel_Hero2</t>
+  </si>
+  <si>
+    <t>Carousel_Hero3</t>
+  </si>
+  <si>
+    <t>Hero1</t>
+  </si>
+  <si>
+    <t>Hero2</t>
+  </si>
+  <si>
+    <t>Hero3</t>
+  </si>
+  <si>
+    <t>Show Brand Bar</t>
+  </si>
+  <si>
+    <t>Hero(3,5)</t>
   </si>
 </sst>
 </file>
@@ -160,8 +295,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,26 +624,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -513,56 +670,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -572,16 +733,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.81640625" customWidth="1"/>
     <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
@@ -593,74 +835,353 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="88.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -14,13 +14,18 @@
     <sheet name="CTA" sheetId="11" r:id="rId5"/>
     <sheet name="TextBlock" sheetId="13" r:id="rId6"/>
     <sheet name="Carousel" sheetId="14" r:id="rId7"/>
+    <sheet name="PEPList" sheetId="16" r:id="rId8"/>
+    <sheet name="Image" sheetId="19" r:id="rId9"/>
+    <sheet name="Accordion" sheetId="15" r:id="rId10"/>
+    <sheet name="LinkList" sheetId="17" r:id="rId11"/>
+    <sheet name="linkDetails" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
   <si>
     <t>heroText</t>
   </si>
@@ -98,9 +103,6 @@
   </si>
   <si>
     <t>/content/pathology-education/language-masters/en/atlas</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>selectStyle</t>
@@ -227,9 +229,6 @@
     <t>Carousel_Defaultvalues</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>addHeroComponents</t>
   </si>
   <si>
@@ -260,16 +259,166 @@
   </si>
   <si>
     <t>Hero(3,5)</t>
+  </si>
+  <si>
+    <t>transitionDelay</t>
+  </si>
+  <si>
+    <t>pauseOnHoverDisable</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>UNCHECK</t>
+  </si>
+  <si>
+    <t>Carousel_AutoSlide</t>
+  </si>
+  <si>
+    <t>Carousel_SlideDisabledOnHover</t>
+  </si>
+  <si>
+    <t>expansionType</t>
+  </si>
+  <si>
+    <t>headlines</t>
+  </si>
+  <si>
+    <t>headlineStyle</t>
+  </si>
+  <si>
+    <t>addLinkList</t>
+  </si>
+  <si>
+    <t>textColor</t>
+  </si>
+  <si>
+    <t>bulletIcon</t>
+  </si>
+  <si>
+    <t>textStyle</t>
+  </si>
+  <si>
+    <t>addLinks</t>
+  </si>
+  <si>
+    <t>linkText</t>
+  </si>
+  <si>
+    <t>linkAction</t>
+  </si>
+  <si>
+    <t>OpenStateDefault</t>
+  </si>
+  <si>
+    <t>Default State Open On Page Load</t>
+  </si>
+  <si>
+    <t>Package Inserts
+User Manuals</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>LinkList(1,2)</t>
+  </si>
+  <si>
+    <t>Blue Check</t>
+  </si>
+  <si>
+    <t>linkDetails(1,1)</t>
+  </si>
+  <si>
+    <t>linkDetails(2,6)</t>
+  </si>
+  <si>
+    <t>Instruction For Use</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/cs/library/packageinsert/public/P03951%20SK006%20NSCLC%20GC%20CC%20UC%20HNSCC%20ESCC%20Rev.%2016.pdf</t>
+  </si>
+  <si>
+    <t>PD-L1 IHC 22C3 pharmDx, Interpretation Manual, Urothelial Carcinoma</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/cs/library/usermanuals/public/29276_22C3_pharmdx_uc_interpretation_manual_us.pdf</t>
+  </si>
+  <si>
+    <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, ESCC</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/cs/library/usermanuals/public/D54358%20rev01%20KN181%20ESCC%20Interpretation%20Manual.pdf</t>
+  </si>
+  <si>
+    <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, Gastric or GEJ Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/cs/library/usermanuals/public/29219_pd-l1-ihc-22C3-pharmdx-gastric-interpretation-manual_us.pdf</t>
+  </si>
+  <si>
+    <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, HNSCC</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/cs/library/usermanuals/public/29314_22c3_pharmDx_hnscc_interpretation_manual_us.pdf</t>
+  </si>
+  <si>
+    <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, Cervical Cancer</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/cs/library/usermanuals/public/29257_22c3_pharmDx_cervical_interpretation_manual_us.pdf</t>
+  </si>
+  <si>
+    <t>Accordion</t>
+  </si>
+  <si>
+    <t>dropImage</t>
+  </si>
+  <si>
+    <t>altText</t>
+  </si>
+  <si>
+    <t>imageCaption</t>
+  </si>
+  <si>
+    <t>captionAsPopup</t>
+  </si>
+  <si>
+    <t>Without Image</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>DefaultValues</t>
+  </si>
+  <si>
+    <t>CaptionAsPopupSelected</t>
+  </si>
+  <si>
+    <t>/content/dam/pathology-education</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -292,10 +441,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -307,8 +457,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -651,15 +805,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -668,12 +838,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="36.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="73" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +1057,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -707,27 +1073,44 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -763,7 +1146,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -771,7 +1154,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -782,7 +1165,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -796,7 +1179,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -805,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -859,35 +1242,35 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -902,35 +1285,35 @@
         <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -945,18 +1328,18 @@
         <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -971,7 +1354,7 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1003,30 +1386,30 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1034,10 +1417,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1046,30 +1429,30 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1099,40 +1482,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1142,46 +1525,184 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
       <c r="D1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -1039,10 +1039,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1094,18 +1097,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1200,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,7 +1648,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1702,7 +1705,7 @@
         <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>heroText</t>
   </si>
@@ -765,15 +765,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -826,10 +827,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>110</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1057,58 +1066,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1369,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1531,7 +1492,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>heroText</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>Image</t>
+  </si>
+  <si>
+    <t>Single Item Expansion</t>
+  </si>
+  <si>
+    <t>Single item expansion</t>
   </si>
 </sst>
 </file>
@@ -768,7 +774,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,10 +855,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -895,6 +901,23 @@
         <v>93</v>
       </c>
       <c r="E2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1045,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1066,10 +1089,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases_Final" sheetId="8" r:id="rId1"/>
@@ -14,18 +14,19 @@
     <sheet name="CTA" sheetId="11" r:id="rId5"/>
     <sheet name="TextBlock" sheetId="13" r:id="rId6"/>
     <sheet name="Carousel" sheetId="14" r:id="rId7"/>
-    <sheet name="PEPList" sheetId="16" r:id="rId8"/>
-    <sheet name="Image" sheetId="19" r:id="rId9"/>
-    <sheet name="Accordion" sheetId="15" r:id="rId10"/>
-    <sheet name="LinkList" sheetId="17" r:id="rId11"/>
-    <sheet name="linkDetails" sheetId="18" r:id="rId12"/>
+    <sheet name="Image" sheetId="19" r:id="rId8"/>
+    <sheet name="Accordion" sheetId="15" r:id="rId9"/>
+    <sheet name="LinkList" sheetId="17" r:id="rId10"/>
+    <sheet name="linkDetails" sheetId="18" r:id="rId11"/>
+    <sheet name="PEPList" sheetId="16" r:id="rId12"/>
+    <sheet name="FixedList" sheetId="20" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
   <si>
     <t>heroText</t>
   </si>
@@ -309,9 +310,6 @@
     <t>linkAction</t>
   </si>
   <si>
-    <t>OpenStateDefault</t>
-  </si>
-  <si>
     <t>Default State Open On Page Load</t>
   </si>
   <si>
@@ -391,22 +389,127 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>DefaultValues</t>
-  </si>
-  <si>
-    <t>CaptionAsPopupSelected</t>
-  </si>
-  <si>
     <t>/content/dam/pathology-education</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>Single Item Expansion</t>
-  </si>
-  <si>
     <t>Single item expansion</t>
+  </si>
+  <si>
+    <t>layoutType</t>
+  </si>
+  <si>
+    <t>listSettingsTab</t>
+  </si>
+  <si>
+    <t>buildList</t>
+  </si>
+  <si>
+    <t>showFilters</t>
+  </si>
+  <si>
+    <t>Featured Card</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Child pages</t>
+  </si>
+  <si>
+    <t>Fixed list</t>
+  </si>
+  <si>
+    <t>AddFixedList</t>
+  </si>
+  <si>
+    <t>parentPage</t>
+  </si>
+  <si>
+    <t>childDeapth</t>
+  </si>
+  <si>
+    <t>orderByPublishDate</t>
+  </si>
+  <si>
+    <t>hideImage</t>
+  </si>
+  <si>
+    <t>hidePEPDescription</t>
+  </si>
+  <si>
+    <t>hideCategoryTags</t>
+  </si>
+  <si>
+    <t>hideEventDate</t>
+  </si>
+  <si>
+    <t>hideEventPresenter</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>hidePEPImage</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>hidePEPDescriptionFixed</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hidePEPTags</t>
+  </si>
+  <si>
+    <t>categoryTag</t>
+  </si>
+  <si>
+    <t>featureFlag</t>
+  </si>
+  <si>
+    <t>buttonLinkAction</t>
+  </si>
+  <si>
+    <t>buttonIconPosition</t>
+  </si>
+  <si>
+    <t>showWebinarProps</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>eventPresenterName</t>
+  </si>
+  <si>
+    <t>eventPresenterTitle</t>
+  </si>
+  <si>
+    <t>FixedList(1,1)</t>
+  </si>
+  <si>
+    <t>Image_DefaultValues</t>
+  </si>
+  <si>
+    <t>Image_CaptionAsPopupSelected</t>
+  </si>
+  <si>
+    <t>Accordion_OpenStateDefault</t>
+  </si>
+  <si>
+    <t>Accordion_Single Item Expansion</t>
+  </si>
+  <si>
+    <t>List_WithChildPages</t>
+  </si>
+  <si>
+    <t>List_WithFixedList</t>
   </si>
 </sst>
 </file>
@@ -833,7 +936,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -841,7 +944,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -854,79 +957,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -954,15 +984,15 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -970,7 +1000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -994,26 +1024,26 @@
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1021,10 +1051,10 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -1032,10 +1062,10 @@
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1043,10 +1073,10 @@
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -1066,11 +1096,204 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1129,7 +1352,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1137,7 +1360,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1235,7 +1458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1401,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1657,30 +1880,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1697,47 +1900,120 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
         <v>115</v>
-      </c>
-      <c r="D3" t="s">
-        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases_Final" sheetId="8" r:id="rId1"/>
@@ -1004,7 +1004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1100,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1293,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,7 +1627,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -20,13 +20,14 @@
     <sheet name="linkDetails" sheetId="18" r:id="rId11"/>
     <sheet name="PEPList" sheetId="16" r:id="rId12"/>
     <sheet name="FixedList" sheetId="20" r:id="rId13"/>
+    <sheet name="ChildPages" sheetId="21" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
   <si>
     <t>heroText</t>
   </si>
@@ -119,9 +120,6 @@
   </si>
   <si>
     <t>iconPosition</t>
-  </si>
-  <si>
-    <t>buttontextColor</t>
   </si>
   <si>
     <t>View Cource</t>
@@ -274,9 +272,6 @@
     <t>UNCHECK</t>
   </si>
   <si>
-    <t>Carousel_AutoSlide</t>
-  </si>
-  <si>
     <t>Carousel_SlideDisabledOnHover</t>
   </si>
   <si>
@@ -437,12 +432,6 @@
     <t>hideImage</t>
   </si>
   <si>
-    <t>hidePEPDescription</t>
-  </si>
-  <si>
-    <t>hideCategoryTags</t>
-  </si>
-  <si>
     <t>hideEventDate</t>
   </si>
   <si>
@@ -452,24 +441,12 @@
     <t>page</t>
   </si>
   <si>
-    <t>hidePEPImage</t>
-  </si>
-  <si>
     <t>image</t>
   </si>
   <si>
-    <t>hidePEPDescriptionFixed</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
-    <t>hidePEPTags</t>
-  </si>
-  <si>
-    <t>categoryTag</t>
-  </si>
-  <si>
     <t>featureFlag</t>
   </si>
   <si>
@@ -479,21 +456,6 @@
     <t>buttonIconPosition</t>
   </si>
   <si>
-    <t>showWebinarProps</t>
-  </si>
-  <si>
-    <t>eventDate</t>
-  </si>
-  <si>
-    <t>eventPresenterName</t>
-  </si>
-  <si>
-    <t>eventPresenterTitle</t>
-  </si>
-  <si>
-    <t>FixedList(1,1)</t>
-  </si>
-  <si>
     <t>Image_DefaultValues</t>
   </si>
   <si>
@@ -510,6 +472,57 @@
   </si>
   <si>
     <t>List_WithFixedList</t>
+  </si>
+  <si>
+    <t>Carousel_SlideEnabledOnHover</t>
+  </si>
+  <si>
+    <t>gridOption</t>
+  </si>
+  <si>
+    <t>showBrandLines</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/e-learning</t>
+  </si>
+  <si>
+    <t>PEPList</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/webinars</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/videos</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/webinars/library-of-previously-conducted-pd-l1-related-webinars</t>
+  </si>
+  <si>
+    <t>Grid Text</t>
+  </si>
+  <si>
+    <t>3 Column grid</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>FixedList(1,5)</t>
+  </si>
+  <si>
+    <t>AddChildPages</t>
+  </si>
+  <si>
+    <t>ChildPages(1,1)</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>hideDescription</t>
+  </si>
+  <si>
+    <t>hideTags</t>
   </si>
 </sst>
 </file>
@@ -899,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -915,28 +928,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -944,7 +957,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -970,29 +983,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1015,37 +1028,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1053,21 +1066,21 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1075,13 +1088,13 @@
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1100,102 +1113,97 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="F1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1206,15 +1214,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.54296875" bestFit="1" customWidth="1"/>
@@ -1226,37 +1234,32 @@
     <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -1265,25 +1268,91 @@
         <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>147</v>
       </c>
-      <c r="P1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1293,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1317,7 +1386,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1333,28 +1402,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1362,9 +1431,17 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1379,12 +1456,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
@@ -1406,7 +1483,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -1414,7 +1491,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1425,7 +1502,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -1439,7 +1516,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1448,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1460,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1470,8 +1547,8 @@
     <col min="3" max="3" width="59.81640625" customWidth="1"/>
     <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1493,10 +1570,10 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>19</v>
@@ -1507,13 +1584,13 @@
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1524,13 +1601,13 @@
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1539,10 +1616,10 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>27</v>
@@ -1550,13 +1627,13 @@
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1567,13 +1644,13 @@
     </row>
     <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1582,10 +1659,10 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -1593,13 +1670,13 @@
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1608,13 +1685,13 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1624,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1638,10 +1715,9 @@
     <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1660,27 +1736,24 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -1689,30 +1762,30 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1742,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1750,32 +1823,32 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1861,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1806,73 +1879,67 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1902,47 +1969,47 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1972,50 +2039,50 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" t="s">
         <v>91</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -19,15 +19,17 @@
     <sheet name="LinkList" sheetId="17" r:id="rId10"/>
     <sheet name="linkDetails" sheetId="18" r:id="rId11"/>
     <sheet name="PEPList" sheetId="16" r:id="rId12"/>
-    <sheet name="FixedList" sheetId="20" r:id="rId13"/>
-    <sheet name="ChildPages" sheetId="21" r:id="rId14"/>
+    <sheet name="ChildPages" sheetId="21" r:id="rId13"/>
+    <sheet name="FixedList" sheetId="20" r:id="rId14"/>
+    <sheet name="Webinar" sheetId="22" r:id="rId15"/>
+    <sheet name="CTAButtons" sheetId="23" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="210">
   <si>
     <t>heroText</t>
   </si>
@@ -141,9 +143,6 @@
   </si>
   <si>
     <t>New window</t>
-  </si>
-  <si>
-    <t>1-4</t>
   </si>
   <si>
     <t>Headline_PlainText</t>
@@ -523,6 +522,156 @@
   </si>
   <si>
     <t>hideTags</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>Headline_PlainText_Gray</t>
+  </si>
+  <si>
+    <t>Headline_PlainText_White</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>webinarPageSource</t>
+  </si>
+  <si>
+    <t>webinarHeadline</t>
+  </si>
+  <si>
+    <t>webinarHideTextArea</t>
+  </si>
+  <si>
+    <t>webinarTextArea</t>
+  </si>
+  <si>
+    <t>webinarHideTags</t>
+  </si>
+  <si>
+    <t>webinarTags</t>
+  </si>
+  <si>
+    <t>eventDate</t>
+  </si>
+  <si>
+    <t>eventPresenterName</t>
+  </si>
+  <si>
+    <t>eventPresenterTitle</t>
+  </si>
+  <si>
+    <t>eventPresenterHeadshot</t>
+  </si>
+  <si>
+    <t>addCTAButtons</t>
+  </si>
+  <si>
+    <t>webinarButtonLink</t>
+  </si>
+  <si>
+    <t>AddWebinars</t>
+  </si>
+  <si>
+    <t>List_WithWebinar</t>
+  </si>
+  <si>
+    <t>Webinar Card 1 Column</t>
+  </si>
+  <si>
+    <t>webinarFilters</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/webinars/cards/child-card-1</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/webinars/cards/child-card-2</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/webinars/cards/child-card-3</t>
+  </si>
+  <si>
+    <t>CTAButtons(1,2)</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>https://www.google.co.in</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Webinar(1,3)</t>
+  </si>
+  <si>
+    <t>hideImageFixed</t>
+  </si>
+  <si>
+    <t>hideDescriptionFixed</t>
+  </si>
+  <si>
+    <t>hideTagsFixed</t>
+  </si>
+  <si>
+    <t>webinarButtonText</t>
+  </si>
+  <si>
+    <t>Webinar Archive</t>
+  </si>
+  <si>
+    <t>List_WithWebinarArchive</t>
+  </si>
+  <si>
+    <t>List_GridTextWithImage</t>
+  </si>
+  <si>
+    <t>Grid text with image</t>
+  </si>
+  <si>
+    <t>FixedList(6,8)</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/atlas/online-atlas-of-stains-for-gastric-or-gej-adenocarcinoma</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/atlas/online-atlas-of-stains-for-head-and-neck-squamous-cell-carcinoma</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/atlas/online-atlas-of-stains-for-urothelial-carcinoma</t>
+  </si>
+  <si>
+    <t>View More</t>
+  </si>
+  <si>
+    <t>Webinar(4,6)</t>
+  </si>
+  <si>
+    <t>CTAButtons(3,3)</t>
+  </si>
+  <si>
+    <t>CTAButtons(4,4)</t>
+  </si>
+  <si>
+    <t>CTAButtons(5,5)</t>
+  </si>
+  <si>
+    <t>View Webinar</t>
   </si>
 </sst>
 </file>
@@ -567,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -582,6 +731,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -933,7 +1083,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
@@ -941,7 +1091,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>36</v>
@@ -949,7 +1099,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -957,7 +1107,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -983,29 +1133,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1028,37 +1178,37 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1066,10 +1216,10 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1077,10 +1227,10 @@
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1088,10 +1238,10 @@
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1113,97 +1263,162 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" t="s">
-        <v>120</v>
-      </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>123</v>
       </c>
       <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
         <v>154</v>
       </c>
-      <c r="I2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>122</v>
       </c>
-      <c r="F3" t="s">
-        <v>124</v>
-      </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1214,10 +1429,66 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,28 +1509,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" t="s">
         <v>134</v>
-      </c>
-      <c r="F1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
       </c>
       <c r="I1" t="s">
         <v>18</v>
@@ -1268,15 +1539,15 @@
         <v>17</v>
       </c>
       <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
         <v>136</v>
-      </c>
-      <c r="L1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1286,17 +1557,50 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1304,58 +1608,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+      <c r="I1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>184</v>
+      </c>
+      <c r="K2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1370,7 +1806,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1386,7 +1822,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1407,7 +1843,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
@@ -1415,7 +1851,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>36</v>
@@ -1423,7 +1859,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1431,7 +1867,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1439,10 +1875,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,7 +1903,7 @@
     <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1480,43 +1916,52 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1524,8 +1969,42 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1584,13 +2063,13 @@
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1601,13 +2080,13 @@
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -1627,13 +2106,13 @@
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -1644,13 +2123,13 @@
     </row>
     <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -1670,13 +2149,13 @@
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1691,7 +2170,7 @@
         <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +2218,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -1750,7 +2229,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
@@ -1770,7 +2249,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1815,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>26</v>
@@ -1823,32 +2302,32 @@
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1879,67 +2358,67 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1969,47 +2448,47 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2039,50 +2518,50 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>90</v>
-      </c>
-      <c r="E3" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -1266,7 +1266,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -15,21 +15,22 @@
     <sheet name="TextBlock" sheetId="13" r:id="rId6"/>
     <sheet name="Carousel" sheetId="14" r:id="rId7"/>
     <sheet name="Image" sheetId="19" r:id="rId8"/>
-    <sheet name="Accordion" sheetId="15" r:id="rId9"/>
-    <sheet name="LinkList" sheetId="17" r:id="rId10"/>
-    <sheet name="linkDetails" sheetId="18" r:id="rId11"/>
-    <sheet name="PEPList" sheetId="16" r:id="rId12"/>
-    <sheet name="ChildPages" sheetId="21" r:id="rId13"/>
-    <sheet name="FixedList" sheetId="20" r:id="rId14"/>
-    <sheet name="Webinar" sheetId="22" r:id="rId15"/>
-    <sheet name="CTAButtons" sheetId="23" r:id="rId16"/>
+    <sheet name="Video" sheetId="24" r:id="rId9"/>
+    <sheet name="Accordion" sheetId="15" r:id="rId10"/>
+    <sheet name="LinkList" sheetId="17" r:id="rId11"/>
+    <sheet name="linkDetails" sheetId="18" r:id="rId12"/>
+    <sheet name="PEPList" sheetId="16" r:id="rId13"/>
+    <sheet name="ChildPages" sheetId="21" r:id="rId14"/>
+    <sheet name="FixedList" sheetId="20" r:id="rId15"/>
+    <sheet name="Webinar" sheetId="22" r:id="rId16"/>
+    <sheet name="CTAButtons" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="218">
   <si>
     <t>heroText</t>
   </si>
@@ -545,9 +546,6 @@
     <t>1-6</t>
   </si>
   <si>
-    <t>1-5</t>
-  </si>
-  <si>
     <t>webinarPageSource</t>
   </si>
   <si>
@@ -672,6 +670,33 @@
   </si>
   <si>
     <t>View Webinar</t>
+  </si>
+  <si>
+    <t>List_VideoPalylist</t>
+  </si>
+  <si>
+    <t>Video Playlist</t>
+  </si>
+  <si>
+    <t>FixedList(9,9)</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/videos/video-full</t>
+  </si>
+  <si>
+    <t>dropVideo</t>
+  </si>
+  <si>
+    <t>dropThumbnail</t>
+  </si>
+  <si>
+    <t>Video_Test</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1037,16 +1062,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD8"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1111,6 +1136,14 @@
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1120,6 +1153,79 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1163,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1261,12 +1367,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1312,10 +1418,10 @@
         <v>124</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1366,10 +1472,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>152</v>
@@ -1381,15 +1487,15 @@
         <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
         <v>121</v>
@@ -1398,15 +1504,15 @@
         <v>123</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
         <v>181</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
       </c>
       <c r="E6" t="s">
         <v>121</v>
@@ -1415,10 +1521,27 @@
         <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K6" t="s">
         <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1427,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1483,12 +1606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1512,19 +1635,19 @@
         <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
         <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
         <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>157</v>
@@ -1572,35 +1695,40 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" t="s">
         <v>203</v>
       </c>
-      <c r="I9" t="s">
-        <v>204</v>
-      </c>
       <c r="J9" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
@@ -1633,85 +1761,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>177</v>
-      </c>
-      <c r="K1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" t="s">
         <v>186</v>
-      </c>
-      <c r="K4" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1735,10 +1863,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
         <v>29</v>
@@ -1749,42 +1877,42 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1798,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1878,7 +2006,15 @@
         <v>147</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2498,70 +2634,39 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases_Final" sheetId="8" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Headline</t>
   </si>
   <si>
-    <t>/content/pathology-education/language-masters/en/testing</t>
-  </si>
-  <si>
     <t>New tab</t>
   </si>
   <si>
@@ -697,6 +694,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>/content/pathology-education/language-masters/en/automationtestingpage</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,28 +1103,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1174,50 +1174,50 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>89</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1239,29 +1239,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1284,73 +1284,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1394,154 +1394,154 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
       <c r="H1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
         <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" t="s">
-        <v>153</v>
-      </c>
       <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
         <v>121</v>
       </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
         <v>197</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I4" t="s">
         <v>198</v>
-      </c>
-      <c r="C4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
         <v>180</v>
       </c>
-      <c r="B6" t="s">
-        <v>181</v>
-      </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
         <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1572,33 +1572,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>129</v>
-      </c>
-      <c r="H1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1632,103 +1632,103 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>191</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>135</v>
-      </c>
-      <c r="L1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" t="s">
         <v>202</v>
       </c>
-      <c r="I9" t="s">
-        <v>203</v>
-      </c>
       <c r="J9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1761,85 +1761,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
         <v>167</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>170</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>174</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>175</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>176</v>
-      </c>
-      <c r="K1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" t="s">
         <v>185</v>
-      </c>
-      <c r="K4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1863,56 +1863,56 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1966,28 +1966,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1995,7 +1995,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -2003,18 +2003,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2028,14 +2028,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2053,15 +2053,15 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2069,78 +2069,78 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2152,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2163,7 +2163,7 @@
     <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.08984375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2173,140 +2173,140 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" t="s">
         <v>69</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +2319,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2337,70 +2337,70 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2430,40 +2430,40 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2494,67 +2494,67 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>10000</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>10000</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2584,47 +2584,47 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>109</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2652,21 +2652,21 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" t="s">
         <v>213</v>
-      </c>
-      <c r="C1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases_Final" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
   <si>
     <t>heroText</t>
   </si>
@@ -62,9 +62,6 @@
     <t>headlineLinkOption</t>
   </si>
   <si>
-    <t>Sample Test</t>
-  </si>
-  <si>
     <t>Headline</t>
   </si>
   <si>
@@ -89,15 +86,9 @@
     <t>buttonColor</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
     <t>/content/dam/pathology-education/asset.jpg</t>
   </si>
   <si>
-    <t>Demo2</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -158,27 +149,7 @@
     <t>Hero_withoutCTA</t>
   </si>
   <si>
-    <t>Hero_withCTA</t>
-  </si>
-  <si>
-    <t>a. Regression tests
-b. Functional Navigation tests
-c. Do we need to verify the UI (alignment, size, position, pixels...) ?</t>
-  </si>
-  <si>
-    <t>a. With diff possible data combinations, publish the component
-b. After publishing the component, verification points ?
-c. Content displayed correctly or not
-d. Do we need to verify the UI (alignment, size, position, pixels...)</t>
-  </si>
-  <si>
     <t>Button_DefaultValues</t>
-  </si>
-  <si>
-    <t>Button_TransparentNewTab</t>
-  </si>
-  <si>
-    <t>Button_TextNewWindow</t>
   </si>
   <si>
     <t>rteText</t>
@@ -228,33 +199,7 @@
     <t>addHeroComponents</t>
   </si>
   <si>
-    <t>HeroComponent1
-HeroComponent2
-HeroComponent3</t>
-  </si>
-  <si>
-    <t>Carousel_Hero1</t>
-  </si>
-  <si>
-    <t>Carousel_Hero2</t>
-  </si>
-  <si>
-    <t>Carousel_Hero3</t>
-  </si>
-  <si>
-    <t>Hero1</t>
-  </si>
-  <si>
-    <t>Hero2</t>
-  </si>
-  <si>
-    <t>Hero3</t>
-  </si>
-  <si>
     <t>Show Brand Bar</t>
-  </si>
-  <si>
-    <t>Hero(3,5)</t>
   </si>
   <si>
     <t>transitionDelay</t>
@@ -606,9 +551,6 @@
     <t>Login</t>
   </si>
   <si>
-    <t>https://www.google.co.in</t>
-  </si>
-  <si>
     <t>Register</t>
   </si>
   <si>
@@ -693,10 +635,93 @@
     <t>Video</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>/content/pathology-education/language-masters/en/automationtestingpage</t>
+  </si>
+  <si>
+    <t>HeadlineText</t>
+  </si>
+  <si>
+    <t>Headline Text H1</t>
+  </si>
+  <si>
+    <t>Headline Text H2</t>
+  </si>
+  <si>
+    <t>Headline Link1</t>
+  </si>
+  <si>
+    <t>Headline Link2</t>
+  </si>
+  <si>
+    <t>Headline Link3</t>
+  </si>
+  <si>
+    <t>Welcome to the Agilent education resources for Combined Positive Scoring (CPS)</t>
+  </si>
+  <si>
+    <t>The educational resources help pathologists to increase their confidence in diagnosing PD-L1 IHC 22C3 pharmDx stained tissue in cancer indications where CPS is applied</t>
+  </si>
+  <si>
+    <t>Learn more about the Combined Positive Score (CPS)</t>
+  </si>
+  <si>
+    <t>Through tutorial videos you can learn more about CPS and how to score with confidence</t>
+  </si>
+  <si>
+    <t>Increase your skills with Agilent Dako’s online training modules</t>
+  </si>
+  <si>
+    <t>The Dako PD-L1 IHC 22C3 pharmDx Interpretation Training Programs use in-depth content to help you confidently diagnosing with the Combined Positive Score</t>
+  </si>
+  <si>
+    <t>Hero(1,3)</t>
+  </si>
+  <si>
+    <t>CPS resource overview
+Tutorial videos about CPS scoring
+Online CPS interpretation training</t>
+  </si>
+  <si>
+    <t>White,para</t>
+  </si>
+  <si>
+    <t>Gray,Small</t>
+  </si>
+  <si>
+    <t>RTE_LabelStyle</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>Hero_NoPrimaryContent</t>
+  </si>
+  <si>
+    <t>Hero_withCTA_NoBrandBar</t>
+  </si>
+  <si>
+    <t>Content Area Background Color Primary</t>
+  </si>
+  <si>
+    <t>Hero_DefaultStyles</t>
+  </si>
+  <si>
+    <t>Button_TransparentNewTab_Small</t>
+  </si>
+  <si>
+    <t>Button_TextNewWindow_Large</t>
+  </si>
+  <si>
+    <t>https://www.agilent.com/</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1084,10 +1109,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1095,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1103,28 +1128,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1132,7 +1157,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1140,10 +1165,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1174,50 +1207,50 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1239,29 +1272,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1284,73 +1317,73 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1394,154 +1427,154 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="K6" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1572,33 +1605,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1632,103 +1665,103 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I9" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1740,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1761,85 +1794,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="J1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="K7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1851,68 +1884,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1928,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1947,10 +1981,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1958,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1966,28 +2000,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1995,7 +2029,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -2003,18 +2037,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>198</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2062,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2053,94 +2087,94 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2150,20 +2184,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2173,140 +2208,111 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
+      <c r="G4" t="s">
+        <v>199</v>
+      </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>217</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I6" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2316,91 +2322,100 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
+      <c r="G4" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2411,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2430,40 +2445,51 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2481,80 +2507,81 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="1">
         <v>10000</v>
       </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4">
+      <c r="F3" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1">
         <v>10000</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>70</v>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2584,47 +2611,47 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2643,8 +2670,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -2652,21 +2678,21 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Authoring_TestData.xlsx
+++ b/Authoring_TestData.xlsx
@@ -4,33 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCases_Final" sheetId="8" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="12" r:id="rId2"/>
-    <sheet name="Headline" sheetId="9" r:id="rId3"/>
-    <sheet name="Hero" sheetId="10" r:id="rId4"/>
-    <sheet name="CTA" sheetId="11" r:id="rId5"/>
-    <sheet name="TextBlock" sheetId="13" r:id="rId6"/>
-    <sheet name="Carousel" sheetId="14" r:id="rId7"/>
-    <sheet name="Image" sheetId="19" r:id="rId8"/>
-    <sheet name="Video" sheetId="24" r:id="rId9"/>
-    <sheet name="Accordion" sheetId="15" r:id="rId10"/>
-    <sheet name="LinkList" sheetId="17" r:id="rId11"/>
-    <sheet name="linkDetails" sheetId="18" r:id="rId12"/>
-    <sheet name="PEPList" sheetId="16" r:id="rId13"/>
-    <sheet name="ChildPages" sheetId="21" r:id="rId14"/>
-    <sheet name="FixedList" sheetId="20" r:id="rId15"/>
-    <sheet name="Webinar" sheetId="22" r:id="rId16"/>
-    <sheet name="CTAButtons" sheetId="23" r:id="rId17"/>
+    <sheet name="TestCases" sheetId="12" r:id="rId1"/>
+    <sheet name="Headline" sheetId="9" r:id="rId2"/>
+    <sheet name="Hero" sheetId="10" r:id="rId3"/>
+    <sheet name="CTA" sheetId="11" r:id="rId4"/>
+    <sheet name="TextBlock" sheetId="13" r:id="rId5"/>
+    <sheet name="Carousel" sheetId="14" r:id="rId6"/>
+    <sheet name="Image" sheetId="19" r:id="rId7"/>
+    <sheet name="Video" sheetId="24" r:id="rId8"/>
+    <sheet name="Accordion" sheetId="15" r:id="rId9"/>
+    <sheet name="LinkList" sheetId="17" r:id="rId10"/>
+    <sheet name="linkDetails" sheetId="18" r:id="rId11"/>
+    <sheet name="PEPList" sheetId="16" r:id="rId12"/>
+    <sheet name="ChildPages" sheetId="21" r:id="rId13"/>
+    <sheet name="FixedList" sheetId="20" r:id="rId14"/>
+    <sheet name="Webinar" sheetId="22" r:id="rId15"/>
+    <sheet name="CTAButtons" sheetId="23" r:id="rId16"/>
+    <sheet name="WindowTitles" sheetId="39" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="223">
   <si>
     <t>heroText</t>
   </si>
@@ -272,57 +272,33 @@
     <t>Instruction For Use</t>
   </si>
   <si>
-    <t>https://www.agilent.com/cs/library/packageinsert/public/P03951%20SK006%20NSCLC%20GC%20CC%20UC%20HNSCC%20ESCC%20Rev.%2016.pdf</t>
-  </si>
-  <si>
     <t>PD-L1 IHC 22C3 pharmDx, Interpretation Manual, Urothelial Carcinoma</t>
   </si>
   <si>
-    <t>https://www.agilent.com/cs/library/usermanuals/public/29276_22C3_pharmdx_uc_interpretation_manual_us.pdf</t>
-  </si>
-  <si>
     <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, ESCC</t>
   </si>
   <si>
-    <t>https://www.agilent.com/cs/library/usermanuals/public/D54358%20rev01%20KN181%20ESCC%20Interpretation%20Manual.pdf</t>
-  </si>
-  <si>
     <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, Gastric or GEJ Adenocarcinoma</t>
   </si>
   <si>
-    <t>https://www.agilent.com/cs/library/usermanuals/public/29219_pd-l1-ihc-22C3-pharmdx-gastric-interpretation-manual_us.pdf</t>
-  </si>
-  <si>
     <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, HNSCC</t>
   </si>
   <si>
-    <t>https://www.agilent.com/cs/library/usermanuals/public/29314_22c3_pharmDx_hnscc_interpretation_manual_us.pdf</t>
-  </si>
-  <si>
     <t>PD-L1 IHC 22C3 pharmDx Interpretation Manual, Cervical Cancer</t>
   </si>
   <si>
-    <t>https://www.agilent.com/cs/library/usermanuals/public/29257_22c3_pharmDx_cervical_interpretation_manual_us.pdf</t>
-  </si>
-  <si>
     <t>Accordion</t>
   </si>
   <si>
     <t>dropImage</t>
   </si>
   <si>
-    <t>altText</t>
-  </si>
-  <si>
     <t>imageCaption</t>
   </si>
   <si>
     <t>captionAsPopup</t>
   </si>
   <si>
-    <t>Without Image</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -410,12 +386,6 @@
     <t>Accordion_Single Item Expansion</t>
   </si>
   <si>
-    <t>List_WithChildPages</t>
-  </si>
-  <si>
-    <t>List_WithFixedList</t>
-  </si>
-  <si>
     <t>Carousel_SlideEnabledOnHover</t>
   </si>
   <si>
@@ -491,9 +461,6 @@
     <t>webinarPageSource</t>
   </si>
   <si>
-    <t>webinarHeadline</t>
-  </si>
-  <si>
     <t>webinarHideTextArea</t>
   </si>
   <si>
@@ -609,9 +576,6 @@
   </si>
   <si>
     <t>View Webinar</t>
-  </si>
-  <si>
-    <t>List_VideoPalylist</t>
   </si>
   <si>
     <t>Video Playlist</t>
@@ -722,6 +686,27 @@
   </si>
   <si>
     <t>https://www.agilent.com/</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Chemical Analysis, Life Sciences, and Diagnostics</t>
+  </si>
+  <si>
+    <t>List_VideoPlaylist</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>List_FeaturedCard_FixedList</t>
+  </si>
+  <si>
+    <t>List_GridText_ChildPages</t>
   </si>
 </sst>
 </file>
@@ -766,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -776,9 +761,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1090,12 +1072,11 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1112,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1120,7 +1101,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1136,7 +1117,7 @@
         <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1149,7 +1130,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -1157,7 +1138,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1165,15 +1146,15 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1181,84 +1162,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1302,12 +1210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1326,28 +1234,28 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>78</v>
+      <c r="B2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1355,10 +1263,10 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -1366,10 +1274,10 @@
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1377,10 +1285,10 @@
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1388,24 +1296,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.agilent.com/cs/library/packageinsert/public/P03951%20SK006%20NSCLC%20GC%20CC%20UC%20HNSCC%20ESCC%20Rev.%2016.pdf"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.agilent.com/cs/library/usermanuals/public/29276_22C3_pharmdx_uc_interpretation_manual_us.pdf"/>
+    <hyperlink ref="B4" r:id="rId3" display="https://www.agilent.com/cs/library/usermanuals/public/D54358%20rev01%20KN181%20ESCC%20Interpretation%20Manual.pdf"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://www.agilent.com/cs/library/usermanuals/public/29219_pd-l1-ihc-22C3-pharmdx-gastric-interpretation-manual_us.pdf"/>
+    <hyperlink ref="B6" r:id="rId5" display="https://www.agilent.com/cs/library/usermanuals/public/29314_22c3_pharmDx_hnscc_interpretation_manual_us.pdf"/>
+    <hyperlink ref="B7" r:id="rId6" display="https://www.agilent.com/cs/library/usermanuals/public/29257_22c3_pharmDx_cervical_interpretation_manual_us.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1427,154 +1335,154 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>107</v>
-      </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J6" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1583,7 +1491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1605,33 +1513,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -1665,28 +1573,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
         <v>16</v>
@@ -1695,15 +1603,15 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1713,55 +1621,55 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1769,12 +1677,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1794,85 +1702,85 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1892,15 +1800,14 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -1911,42 +1818,42 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>227</v>
+        <v>159</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>227</v>
+        <v>160</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1958,111 +1865,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2098,18 +1944,18 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
@@ -2117,10 +1963,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
@@ -2134,13 +1980,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2148,16 +1994,16 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2165,16 +2011,16 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -2237,10 +2083,10 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -2251,13 +2097,13 @@
     </row>
     <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -2269,21 +2115,21 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -2295,7 +2141,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="I4" t="s">
         <v>54</v>
@@ -2303,13 +2149,13 @@
     </row>
     <row r="5" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -2320,12 +2166,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2369,18 +2215,18 @@
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -2392,18 +2238,18 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -2415,7 +2261,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2424,12 +2270,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2467,7 +2313,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
@@ -2478,18 +2324,18 @@
         <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2497,7 +2343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2541,10 +2387,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2552,7 +2398,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>57</v>
@@ -2561,15 +2407,15 @@
         <v>10000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -2581,7 +2427,67 @@
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>212</v>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2590,76 +2496,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2678,21 +2514,94 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
